--- a/medicine/Mort/Haceldama/Haceldama.xlsx
+++ b/medicine/Mort/Haceldama/Haceldama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Haceldama (mot araméen signifiant champ du sang), est un lieu de sépulture voisin de Jérusalem qui était utilisé pour les étrangers.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le Nouveau Testament (Actes, 1.19 et Matthieu, 27.8), le Haceldama est acheté avec l'argent que Judas a reçu pour livrer Jésus-Christ et qu'il rend ainsi aux chefs de la synagogue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le Nouveau Testament (Actes, 1.19 et Matthieu, 27.8), le Haceldama est acheté avec l'argent que Judas a reçu pour livrer Jésus-Christ et qu'il rend ainsi aux chefs de la synagogue.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Léonce de Larmandie, Haceldama, la mère de Judas, mystère en 1 acte, représenté à Paris au théâtre de la Bodinière le vendredi 16 mars 1897</t>
         </is>
